--- a/XC-comparisons/14P-DAT_comparison.xlsx
+++ b/XC-comparisons/14P-DAT_comparison.xlsx
@@ -1427,7 +1427,7 @@
         <v>-16</v>
       </c>
       <c r="B36">
-        <v>-0.00100000000000122</v>
+        <v>-3.5527136788005e-15</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>-9</v>
       </c>
       <c r="B43">
-        <v>-0.000999999999997669</v>
+        <v>3.5527136788005e-15</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -7369,7 +7369,7 @@
         <v>-16</v>
       </c>
       <c r="B36">
-        <v>27.713</v>
+        <v>27.714</v>
       </c>
       <c r="C36">
         <v>30.051</v>
@@ -7572,7 +7572,7 @@
         <v>-9</v>
       </c>
       <c r="B43">
-        <v>23.311</v>
+        <v>23.312</v>
       </c>
       <c r="C43">
         <v>24.234</v>
@@ -10340,7 +10340,7 @@
         <v>-16</v>
       </c>
       <c r="B36">
-        <v>-0.0036084148233725</v>
+        <v>-1.28192021317764e-14</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -10543,7 +10543,7 @@
         <v>-9</v>
       </c>
       <c r="B43">
-        <v>-0.00428982025652125</v>
+        <v>1.52398493428299e-14</v>
       </c>
       <c r="C43">
         <v>0</v>
